--- a/biology/Zoologie/Conus_zapatosensis/Conus_zapatosensis.xlsx
+++ b/biology/Zoologie/Conus_zapatosensis/Conus_zapatosensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus zapatosensis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 19 mm et 49 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Conus zapatosensis se limite au centre et au sud des Philippines avec un spécimen douteux signalé à Singapour. La localité type se situe près des îles Zapatos, Negros, aux Philippines. Les paratypes proviennent de Marinduque et de Burias Straight[1]. 
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique aux Philippines où elle est commune dans son aire de répartition. Il n'y a pas de menaces majeures connues pour cette espèce. Cette espèce est classée dans la catégorie "préoccupation mineure"[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Conus zapatosensis se limite au centre et au sud des Philippines avec un spécimen douteux signalé à Singapour. La localité type se situe près des îles Zapatos, Negros, aux Philippines. Les paratypes proviennent de Marinduque et de Burias Straight. 
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique aux Philippines où elle est commune dans son aire de répartition. Il n'y a pas de menaces majeures connues pour cette espèce. Cette espèce est classée dans la catégorie "préoccupation mineure".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_zapatosensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_zapatosensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus zapatosensis a été décrite pour la première fois en 1987 par le malacologiste allemand Dieter Röckel (d) dans « Spixiana »[3],[4].
-Synonymes
-Conus (Phasmoconus) zapatosensis Röckel, 1987 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus zapatosensis a été décrite pour la première fois en 1987 par le malacologiste allemand Dieter Röckel (d) dans « Spixiana »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_zapatosensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_zapatosensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Phasmoconus) zapatosensis Röckel, 1987 · appellation alternative
 Phasmoconus zapatosensis (Röckel, 1987) · non accepté</t>
         </is>
       </c>
